--- a/xlsx/美国犯罪_intext.xlsx
+++ b/xlsx/美国犯罪_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="442">
   <si>
     <t>美国犯罪</t>
   </si>
@@ -29,7 +29,7 @@
     <t>美国司法统计局</t>
   </si>
   <si>
-    <t>政策_政策_美國_美国犯罪</t>
+    <t>政策_政策_美国_美国犯罪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E8%B0%83%E6%9F%A5%E5%B1%80</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%AF%92%E5%93%81%E5%92%8C%E7%8A%AF%E7%BD%AA%E5%95%8F%E9%A1%8C%E8%BE%A6%E5%85%AC%E5%AE%A4</t>
   </si>
   <si>
-    <t>聯合國毒品和犯罪問題辦公室</t>
+    <t>联合国毒品和犯罪问题办公室</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E5%B8%82</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>印度裔美國人</t>
+    <t>印度裔美国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E8%A3%94%E7%BE%8E%E5%9B%BD%E4%BA%BA</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>非洲裔美國人</t>
+    <t>非洲裔美国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9B%91%E7%A6%81%E5%88%B6%E5%BA%A6</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E5%B3%B6_(%E7%B4%90%E7%B4%84)</t>
   </si>
   <si>
-    <t>長島 (紐約)</t>
+    <t>长岛 (纽约)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E7%88%BE%E6%B3%95%E5%85%8B%E6%96%AF%E7%B8%A3</t>
   </si>
   <si>
-    <t>費爾法克斯縣</t>
+    <t>费尔法克斯县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%B9%E5%9F%8E</t>
@@ -281,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%96%AF%E6%B1%80</t>
   </si>
   <si>
-    <t>奧斯汀</t>
+    <t>奥斯汀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%90%A8%E6%96%AF%E5%B7%9E</t>
@@ -335,7 +335,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E7%88%BE%E5%B8%95%E7%B4%A2_(%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>艾爾帕索 (德克薩斯州)</t>
+    <t>艾尔帕索 (德克萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E6%96%AF%E5%A0%A1</t>
@@ -353,7 +353,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%B4%8D%E6%B3%A2%E5%88%A9%E6%96%AF</t>
   </si>
   <si>
-    <t>印第安納波利斯</t>
+    <t>印第安纳波利斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%BA%B3%E5%B7%9E</t>
@@ -389,7 +389,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E8%8F%B2%E6%96%AF_(%E7%94%B0%E7%B4%8D%E8%A5%BF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>孟菲斯 (田納西州)</t>
+    <t>孟菲斯 (田纳西州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%BA%B3%E8%A5%BF%E5%B7%9E</t>
@@ -443,7 +443,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%88%A9%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>加利福利亞州</t>
+    <t>加利福利亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E4%BD%95%E5%A1%9E_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -473,7 +473,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%93%A5%E5%80%AB%E5%B8%83%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>前哥倫布時期</t>
+    <t>前哥伦布时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E6%AE%96%E6%B0%91%E5%9C%B0</t>
@@ -497,7 +497,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A0%98%E5%9C%9F%E8%AE%8A%E9%81%B7</t>
   </si>
   <si>
-    <t>美國領土變遷</t>
+    <t>美国领土变迁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E6%88%98</t>
@@ -545,7 +545,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E7%81%A3%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>波斯灣戰爭</t>
+    <t>波斯湾战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%81%90%E6%88%98%E4%BA%89</t>
@@ -557,7 +557,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%B5%B7%E5%98%AF</t>
   </si>
   <si>
-    <t>金融海嘯</t>
+    <t>金融海啸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3</t>
@@ -587,7 +587,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%83%B5%E6%94%BF%E7%BD%B2</t>
   </si>
   <si>
-    <t>美國郵政署</t>
+    <t>美国邮政署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%91%E5%AD%A6%E6%8A%80%E6%9C%AF</t>
@@ -623,7 +623,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
   </si>
   <si>
-    <t>權力分立</t>
+    <t>权力分立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
@@ -659,7 +659,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%A9%9F%E6%A7%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國聯邦機構列表</t>
+    <t>美国联邦机构列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
@@ -689,7 +689,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C%E7%8D%A8%E7%AB%8B%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>美國政府獨立機構</t>
+    <t>美国政府独立机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
@@ -719,13 +719,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%83%85%E5%A0%B1%E9%AB%94%E7%B3%BB</t>
   </si>
   <si>
-    <t>美國情報體系</t>
+    <t>美国情报体系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%83%85%E5%A0%B1%E7%B8%BD%E7%9B%A3</t>
   </si>
   <si>
-    <t>國家情報總監</t>
+    <t>国家情报总监</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E6%8A%A5%E5%B1%80</t>
@@ -737,13 +737,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>國防情報局</t>
+    <t>国防情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%9C%B0%E7%90%86%E7%A9%BA%E9%96%93%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>美國國家地理空間情報局</t>
+    <t>美国国家地理空间情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E4%BE%A6%E5%AF%9F%E5%B1%80</t>
@@ -791,7 +791,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%B0%91%E8%AD%A6%E8%A1%9B%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國國民警衛隊</t>
+    <t>美国国民警卫队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E6%B2%BB</t>
@@ -803,7 +803,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>美國選舉</t>
+    <t>美国选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%80%89%E4%B8%BE%E4%BA%BA%E5%9B%A2</t>
@@ -845,7 +845,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC51%E5%B7%9E</t>
   </si>
   <si>
-    <t>美國第51州</t>
+    <t>美国第51州</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Political_status_of_Puerto_Rico</t>
@@ -857,7 +857,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E5%B7%9E%E8%88%87%E8%97%8D%E5%B7%9E</t>
   </si>
   <si>
-    <t>紅州與藍州</t>
+    <t>红州与蓝州</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Purple_America</t>
@@ -893,7 +893,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E7%A3%AF%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>洛磯山脈</t>
+    <t>洛矶山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD%E5%88%97%E8%A1%A8</t>
@@ -905,15 +905,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>美國地區</t>
+    <t>美国地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
   </si>
   <si>
-    <t>新英格蘭</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%9C%B0%E5%8C%BA</t>
   </si>
   <si>
@@ -923,13 +920,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8D%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國南部</t>
+    <t>美国南部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E8%A5%BF%E9%83%A8</t>
   </si>
   <si>
-    <t>美國中西部</t>
+    <t>美国中西部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%A4%A7%E5%B9%B3%E5%8E%9F</t>
@@ -941,13 +938,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8C%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國西北部</t>
+    <t>美国西北部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8D%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國西南部</t>
+    <t>美国西南部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B2%B3%E6%B5%81%E5%88%97%E8%A1%A8</t>
@@ -995,7 +992,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A2</t>
   </si>
   <si>
-    <t>美國夢</t>
+    <t>美国梦</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_States_federal_budget</t>
@@ -1007,13 +1004,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%84%B2%E5%82%99%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>聯邦儲備系統</t>
+    <t>联邦储备系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9A%84%E5%B7%A5%E6%9C%83</t>
   </si>
   <si>
-    <t>美國的工會</t>
+    <t>美国的工会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Social_programs_in_the_United_States</t>
@@ -1025,7 +1022,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%82%B5</t>
   </si>
   <si>
-    <t>美國國債</t>
+    <t>美国国债</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Taxation_in_the_United_States</t>
@@ -1037,7 +1034,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%A4%E9%80%9A</t>
   </si>
   <si>
-    <t>美國交通</t>
+    <t>美国交通</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%BA%E5%9C%BA%E5%88%97%E8%A1%A8</t>
@@ -1049,13 +1046,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%81%93</t>
   </si>
   <si>
-    <t>美國國道</t>
+    <t>美国国道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>州際公路系統</t>
+    <t>州际公路系统</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Unemployment_in_the_United_States</t>
@@ -1079,7 +1076,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>美國社會</t>
+    <t>美国社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%95%99%E8%82%B2</t>
@@ -1139,15 +1136,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83%E9%9A%8E%E5%B1%A4</t>
   </si>
   <si>
-    <t>美國社會階層</t>
+    <t>美国社会阶层</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%A2%A6</t>
   </si>
   <si>
-    <t>美国梦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BD%93%E8%82%B2</t>
   </si>
   <si>
@@ -1157,7 +1151,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8BLGBT%E6%AC%8A%E7%9B%8A</t>
   </si>
   <si>
-    <t>美國LGBT權益</t>
+    <t>美国LGBT权益</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
@@ -1211,7 +1205,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A3%B2%E9%A3%9F%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>美國飲食文化</t>
+    <t>美国饮食文化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E6%97%97</t>
@@ -1247,7 +1241,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>美國電視</t>
+    <t>美国电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%94%B5%E5%BD%B1</t>
@@ -1265,7 +1259,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E8%B1%A1%E8%A1%A8%E7%8F%BE%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>抽象表現主義</t>
+    <t>抽象表现主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A4%BE%E4%BC%9A%E9%97%AE%E9%A2%98</t>
@@ -1301,19 +1295,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%94%AF%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>美國槍支政治</t>
+    <t>美国枪支政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%9E%9D%E6%9A%B4%E5%8A%9B%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>美國槍枝暴力問題</t>
+    <t>美国枪枝暴力问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%86%AB%E7%99%82%E6%94%B9%E9%9D%A9</t>
   </si>
   <si>
-    <t>美國醫療改革</t>
+    <t>美国医疗改革</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%9D%83</t>
@@ -1325,7 +1319,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E9%82%8A%E7%95%8C</t>
   </si>
   <si>
-    <t>美墨邊界</t>
+    <t>美墨边界</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%82%A5%E8%83%96%E9%97%AE%E9%A2%98</t>
@@ -6096,7 +6090,7 @@
         <v>297</v>
       </c>
       <c r="F152" t="s">
-        <v>298</v>
+        <v>76</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6122,10 +6116,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>298</v>
+      </c>
+      <c r="F153" t="s">
         <v>299</v>
-      </c>
-      <c r="F153" t="s">
-        <v>300</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6151,10 +6145,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>300</v>
+      </c>
+      <c r="F154" t="s">
         <v>301</v>
-      </c>
-      <c r="F154" t="s">
-        <v>302</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6180,10 +6174,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>302</v>
+      </c>
+      <c r="F155" t="s">
         <v>303</v>
-      </c>
-      <c r="F155" t="s">
-        <v>304</v>
       </c>
       <c r="G155" t="n">
         <v>2</v>
@@ -6209,10 +6203,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>304</v>
+      </c>
+      <c r="F156" t="s">
         <v>305</v>
-      </c>
-      <c r="F156" t="s">
-        <v>306</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6238,10 +6232,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>306</v>
+      </c>
+      <c r="F157" t="s">
         <v>307</v>
-      </c>
-      <c r="F157" t="s">
-        <v>308</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6267,10 +6261,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>308</v>
+      </c>
+      <c r="F158" t="s">
         <v>309</v>
-      </c>
-      <c r="F158" t="s">
-        <v>310</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6296,10 +6290,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>310</v>
+      </c>
+      <c r="F159" t="s">
         <v>311</v>
-      </c>
-      <c r="F159" t="s">
-        <v>312</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6325,10 +6319,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>312</v>
+      </c>
+      <c r="F160" t="s">
         <v>313</v>
-      </c>
-      <c r="F160" t="s">
-        <v>314</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6354,10 +6348,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>314</v>
+      </c>
+      <c r="F161" t="s">
         <v>315</v>
-      </c>
-      <c r="F161" t="s">
-        <v>316</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6383,10 +6377,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>316</v>
+      </c>
+      <c r="F162" t="s">
         <v>317</v>
-      </c>
-      <c r="F162" t="s">
-        <v>318</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6412,10 +6406,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>318</v>
+      </c>
+      <c r="F163" t="s">
         <v>319</v>
-      </c>
-      <c r="F163" t="s">
-        <v>320</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6441,10 +6435,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>320</v>
+      </c>
+      <c r="F164" t="s">
         <v>321</v>
-      </c>
-      <c r="F164" t="s">
-        <v>322</v>
       </c>
       <c r="G164" t="n">
         <v>2</v>
@@ -6470,10 +6464,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>322</v>
+      </c>
+      <c r="F165" t="s">
         <v>323</v>
-      </c>
-      <c r="F165" t="s">
-        <v>324</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6499,10 +6493,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>324</v>
+      </c>
+      <c r="F166" t="s">
         <v>325</v>
-      </c>
-      <c r="F166" t="s">
-        <v>326</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6528,10 +6522,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>326</v>
+      </c>
+      <c r="F167" t="s">
         <v>327</v>
-      </c>
-      <c r="F167" t="s">
-        <v>328</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6557,10 +6551,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>328</v>
+      </c>
+      <c r="F168" t="s">
         <v>329</v>
-      </c>
-      <c r="F168" t="s">
-        <v>330</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6586,10 +6580,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>330</v>
+      </c>
+      <c r="F169" t="s">
         <v>331</v>
-      </c>
-      <c r="F169" t="s">
-        <v>332</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6615,10 +6609,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>332</v>
+      </c>
+      <c r="F170" t="s">
         <v>333</v>
-      </c>
-      <c r="F170" t="s">
-        <v>334</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6644,10 +6638,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>334</v>
+      </c>
+      <c r="F171" t="s">
         <v>335</v>
-      </c>
-      <c r="F171" t="s">
-        <v>336</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6673,10 +6667,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>336</v>
+      </c>
+      <c r="F172" t="s">
         <v>337</v>
-      </c>
-      <c r="F172" t="s">
-        <v>338</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6702,10 +6696,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>338</v>
+      </c>
+      <c r="F173" t="s">
         <v>339</v>
-      </c>
-      <c r="F173" t="s">
-        <v>340</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6731,10 +6725,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>340</v>
+      </c>
+      <c r="F174" t="s">
         <v>341</v>
-      </c>
-      <c r="F174" t="s">
-        <v>342</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6760,10 +6754,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>342</v>
+      </c>
+      <c r="F175" t="s">
         <v>343</v>
-      </c>
-      <c r="F175" t="s">
-        <v>344</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6789,10 +6783,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>344</v>
+      </c>
+      <c r="F176" t="s">
         <v>345</v>
-      </c>
-      <c r="F176" t="s">
-        <v>346</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6818,10 +6812,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>346</v>
+      </c>
+      <c r="F177" t="s">
         <v>347</v>
-      </c>
-      <c r="F177" t="s">
-        <v>348</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6847,10 +6841,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>348</v>
+      </c>
+      <c r="F178" t="s">
         <v>349</v>
-      </c>
-      <c r="F178" t="s">
-        <v>350</v>
       </c>
       <c r="G178" t="n">
         <v>2</v>
@@ -6876,10 +6870,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>350</v>
+      </c>
+      <c r="F179" t="s">
         <v>351</v>
-      </c>
-      <c r="F179" t="s">
-        <v>352</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6905,10 +6899,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>352</v>
+      </c>
+      <c r="F180" t="s">
         <v>353</v>
-      </c>
-      <c r="F180" t="s">
-        <v>354</v>
       </c>
       <c r="G180" t="n">
         <v>3</v>
@@ -6934,10 +6928,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>354</v>
+      </c>
+      <c r="F181" t="s">
         <v>355</v>
-      </c>
-      <c r="F181" t="s">
-        <v>356</v>
       </c>
       <c r="G181" t="n">
         <v>2</v>
@@ -6963,10 +6957,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>356</v>
+      </c>
+      <c r="F182" t="s">
         <v>357</v>
-      </c>
-      <c r="F182" t="s">
-        <v>358</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7021,10 +7015,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>358</v>
+      </c>
+      <c r="F184" t="s">
         <v>359</v>
-      </c>
-      <c r="F184" t="s">
-        <v>360</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7050,10 +7044,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>360</v>
+      </c>
+      <c r="F185" t="s">
         <v>361</v>
-      </c>
-      <c r="F185" t="s">
-        <v>362</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7079,10 +7073,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>362</v>
+      </c>
+      <c r="F186" t="s">
         <v>363</v>
-      </c>
-      <c r="F186" t="s">
-        <v>364</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7108,10 +7102,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>364</v>
+      </c>
+      <c r="F187" t="s">
         <v>365</v>
-      </c>
-      <c r="F187" t="s">
-        <v>366</v>
       </c>
       <c r="G187" t="n">
         <v>4</v>
@@ -7137,10 +7131,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>366</v>
+      </c>
+      <c r="F188" t="s">
         <v>367</v>
-      </c>
-      <c r="F188" t="s">
-        <v>368</v>
       </c>
       <c r="G188" t="n">
         <v>8</v>
@@ -7166,10 +7160,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>368</v>
+      </c>
+      <c r="F189" t="s">
         <v>369</v>
-      </c>
-      <c r="F189" t="s">
-        <v>370</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7195,10 +7189,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>370</v>
+      </c>
+      <c r="F190" t="s">
         <v>371</v>
-      </c>
-      <c r="F190" t="s">
-        <v>372</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7224,10 +7218,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>372</v>
+      </c>
+      <c r="F191" t="s">
         <v>373</v>
-      </c>
-      <c r="F191" t="s">
-        <v>374</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7253,10 +7247,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F192" t="s">
-        <v>376</v>
+        <v>325</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7282,10 +7276,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F193" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7311,10 +7305,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F194" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7340,10 +7334,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F195" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7369,10 +7363,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F196" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7398,10 +7392,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F197" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G197" t="n">
         <v>2</v>
@@ -7427,10 +7421,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F198" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7456,10 +7450,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F199" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7485,10 +7479,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F200" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7514,10 +7508,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F201" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7543,10 +7537,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F202" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7572,10 +7566,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F203" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7601,10 +7595,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F204" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7630,10 +7624,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F205" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G205" t="n">
         <v>4</v>
@@ -7659,10 +7653,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F206" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7688,10 +7682,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F207" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7717,10 +7711,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F208" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7746,10 +7740,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F209" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7775,10 +7769,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F210" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7804,10 +7798,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F211" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -7833,10 +7827,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F212" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -7862,10 +7856,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F213" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G213" t="n">
         <v>11</v>
@@ -7891,10 +7885,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F214" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -7920,10 +7914,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F215" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -7949,10 +7943,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F216" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -7978,10 +7972,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F217" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8007,10 +8001,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F218" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8036,10 +8030,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F219" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8065,10 +8059,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F220" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8094,10 +8088,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F221" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G221" t="n">
         <v>2</v>
@@ -8123,10 +8117,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F222" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8152,10 +8146,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F223" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8181,10 +8175,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F224" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8210,10 +8204,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F225" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G225" t="n">
         <v>2</v>
@@ -8239,10 +8233,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
+        <v>439</v>
+      </c>
+      <c r="F226" t="s">
         <v>441</v>
-      </c>
-      <c r="F226" t="s">
-        <v>443</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
